--- a/01_raw_data/dados_brutos.xlsx
+++ b/01_raw_data/dados_brutos.xlsx
@@ -1,68 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flavi\OneDrive\Documentos\2025.1\IF223 Monografia e Seminário\20250516_relatorio_planejamento_florestal\02_data_rds\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A1115B-1159-4944-A7B8-52B5A4DCBC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="15276" windowHeight="11436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="12">
-  <si>
-    <t>talhao</t>
-  </si>
-  <si>
-    <t>genero</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>ano_plantio</t>
-  </si>
-  <si>
-    <t>idade_colheita</t>
-  </si>
-  <si>
-    <t>ano_colheita</t>
-  </si>
-  <si>
-    <t>dmt</t>
-  </si>
-  <si>
-    <t>volume_m3</t>
-  </si>
-  <si>
-    <t>eucalipto</t>
-  </si>
-  <si>
-    <t>modalidade</t>
-  </si>
-  <si>
-    <t>propria</t>
-  </si>
-  <si>
-    <t>compra</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -196,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,232 +350,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>talhao</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>genero</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>idade_atual</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ano_plantio</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>idade_colheita</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ano_colheita</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>dmt</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>area_ha</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>volume_m3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>modalidade</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>t50</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C2">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>7</v>
       </c>
       <c r="D2">
         <v>2014</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="G2">
-        <v>62.901848973072219</v>
+        <v>55.74289978043856</v>
       </c>
       <c r="H2">
-        <v>235.9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>58.17705082699815</v>
+      </c>
+      <c r="I2">
+        <v>12524.57106072168</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>t6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2015</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>2020</v>
+      </c>
+      <c r="G3">
+        <v>67.47263543621528</v>
+      </c>
+      <c r="H3">
+        <v>7.597528446360983</v>
+      </c>
+      <c r="I3">
+        <v>1330.13352556229</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>t88</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>2014</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>2021</v>
-      </c>
-      <c r="G3">
-        <v>55.742899780438563</v>
-      </c>
-      <c r="H3">
-        <v>235.9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
       <c r="D4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>2021</v>
       </c>
       <c r="G4">
-        <v>67.939911472102921</v>
+        <v>71.12116263626085</v>
       </c>
       <c r="H4">
-        <v>235.9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>8</v>
+        <v>55.75963556726161</v>
+      </c>
+      <c r="I4">
+        <v>12045.27373177402</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>t71</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G5">
-        <v>106.374022611301</v>
+        <v>71.19722623730122</v>
       </c>
       <c r="H5">
-        <v>269.60000000000002</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>8</v>
+        <v>54.80030069157851</v>
+      </c>
+      <c r="I5">
+        <v>11538.86539676384</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>t24</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>2014</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G6">
-        <v>66.746360977005267</v>
+        <v>62.90184897307222</v>
       </c>
       <c r="H6">
-        <v>269.60000000000002</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>8</v>
+        <v>32.46481794797931</v>
+      </c>
+      <c r="I6">
+        <v>7063.763734364121</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>t61</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>2021</v>
+      </c>
+      <c r="G7">
+        <v>74.09435983971673</v>
+      </c>
+      <c r="H7">
+        <v>40.10569926379411</v>
+      </c>
+      <c r="I7">
+        <v>7016.164493265526</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>t90</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="F7">
-        <v>2022</v>
-      </c>
-      <c r="G7">
-        <v>67.472635436215285</v>
-      </c>
-      <c r="H7">
-        <v>235.9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
       <c r="D8">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="G8">
-        <v>71.197226237301223</v>
+        <v>67.93991147210292</v>
       </c>
       <c r="H8">
-        <v>235.9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>8</v>
+        <v>13.79565441181363</v>
+      </c>
+      <c r="I8">
+        <v>3364.421714655224</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>t94</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>2015</v>
@@ -644,99 +699,147 @@
         <v>2022</v>
       </c>
       <c r="G9">
-        <v>71.121162636260848</v>
+        <v>51.12404129329425</v>
       </c>
       <c r="H9">
-        <v>235.9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+        <v>30.81876622873885</v>
+      </c>
+      <c r="I9">
+        <v>6740.583513491343</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>t57</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
       <c r="D10">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>2022</v>
       </c>
       <c r="G10">
-        <v>51.124041293294248</v>
+        <v>66.74636097700527</v>
       </c>
       <c r="H10">
-        <v>235.9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+        <v>14.63102372157178</v>
+      </c>
+      <c r="I10">
+        <v>3775.556375483594</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>t33</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C11">
         <v>8</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
       <c r="D11">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="G11">
-        <v>68.469861349397462</v>
+        <v>106.374022611301</v>
       </c>
       <c r="H11">
-        <v>235.9</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>8</v>
+        <v>11.43682448903365</v>
+      </c>
+      <c r="I11">
+        <v>3182.53100099949</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>t3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>2023</v>
       </c>
       <c r="G12">
-        <v>94.385836465436356</v>
+        <v>63.37473081181999</v>
       </c>
       <c r="H12">
-        <v>235.9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>8</v>
+        <v>53.57827152684434</v>
+      </c>
+      <c r="I12">
+        <v>10346.44537772654</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>t5</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>2016</v>
@@ -748,18 +851,30 @@
         <v>2023</v>
       </c>
       <c r="G13">
-        <v>74.094359839716731</v>
+        <v>68.46986134939746</v>
       </c>
       <c r="H13">
-        <v>235.9</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>8</v>
+        <v>31.40661988009112</v>
+      </c>
+      <c r="I13">
+        <v>8000.964248094293</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>t67</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C14">
         <v>7</v>
@@ -774,73 +889,109 @@
         <v>2023</v>
       </c>
       <c r="G14">
-        <v>96.671780697160983</v>
+        <v>96.67178069716098</v>
       </c>
       <c r="H14">
-        <v>235.9</v>
-      </c>
-      <c r="I14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>8</v>
+        <v>35.6693216085603</v>
+      </c>
+      <c r="I14">
+        <v>7838.325999990164</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>t47</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15">
+        <v>2017</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>2023</v>
+      </c>
+      <c r="G15">
+        <v>73.06725109190219</v>
+      </c>
+      <c r="H15">
+        <v>38.03021116471191</v>
+      </c>
+      <c r="I15">
+        <v>7656.404600332245</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>t19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
         <v>2016</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>2024</v>
-      </c>
-      <c r="G15">
-        <v>76.906565879663674</v>
-      </c>
-      <c r="H15">
-        <v>269.60000000000002</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>2017</v>
       </c>
       <c r="E16">
         <v>7</v>
       </c>
       <c r="F16">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="G16">
-        <v>63.374730811819987</v>
+        <v>94.38583646543636</v>
       </c>
       <c r="H16">
-        <v>235.9</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>8</v>
+        <v>33.25300692183622</v>
+      </c>
+      <c r="I16">
+        <v>7216.334091203854</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>t41</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>2017</v>
@@ -852,18 +1003,30 @@
         <v>2024</v>
       </c>
       <c r="G17">
-        <v>83.960260302110967</v>
+        <v>78.11005310848923</v>
       </c>
       <c r="H17">
-        <v>235.9</v>
-      </c>
-      <c r="I17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>8</v>
+        <v>50.76681843957836</v>
+      </c>
+      <c r="I17">
+        <v>12628.16756479426</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>t31</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C18">
         <v>7</v>
@@ -878,21 +1041,33 @@
         <v>2024</v>
       </c>
       <c r="G18">
-        <v>78.463382289390992</v>
+        <v>110.9942592576808</v>
       </c>
       <c r="H18">
-        <v>235.9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>8</v>
+        <v>29.42770524439283</v>
+      </c>
+      <c r="I18">
+        <v>6799.472489115494</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>t10</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>2017</v>
@@ -904,122 +1079,182 @@
         <v>2024</v>
       </c>
       <c r="G19">
-        <v>110.9942592576808</v>
+        <v>83.96026030211097</v>
       </c>
       <c r="H19">
-        <v>235.9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>8</v>
+        <v>27.07069346096796</v>
+      </c>
+      <c r="I19">
+        <v>6249.961113295014</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>t59</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>2024</v>
       </c>
       <c r="G20">
-        <v>78.110053108489225</v>
+        <v>87.17548468994737</v>
       </c>
       <c r="H20">
-        <v>235.9</v>
-      </c>
-      <c r="I20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+        <v>18.53902012531999</v>
+      </c>
+      <c r="I20">
+        <v>3024.459205024349</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>t2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C21">
         <v>8</v>
       </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
       <c r="D21">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21">
         <v>2024</v>
       </c>
       <c r="G21">
-        <v>73.067251091902193</v>
+        <v>76.90656587966367</v>
       </c>
       <c r="H21">
-        <v>235.9</v>
-      </c>
-      <c r="I21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>8</v>
+        <v>8.839698076229276</v>
+      </c>
+      <c r="I21">
+        <v>2407.65937057591</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>t18</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="G22">
-        <v>44.775474121746093</v>
+        <v>100.1439906935565</v>
       </c>
       <c r="H22">
-        <v>269.60000000000002</v>
-      </c>
-      <c r="I22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>8</v>
+        <v>9.944138561963594</v>
+      </c>
+      <c r="I22">
+        <v>2008.702983325283</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>t22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E23">
         <v>7</v>
       </c>
       <c r="F23">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="G23">
-        <v>80.584509899621523</v>
+        <v>78.46338228939099</v>
       </c>
       <c r="H23">
-        <v>235.9</v>
-      </c>
-      <c r="I23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>8</v>
+        <v>5.980506345570732</v>
+      </c>
+      <c r="I23">
+        <v>1307.679771643294</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>t16</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C24">
         <v>7</v>
@@ -1034,21 +1269,33 @@
         <v>2025</v>
       </c>
       <c r="G24">
-        <v>67.495451428499265</v>
+        <v>67.49545142849927</v>
       </c>
       <c r="H24">
-        <v>235.9</v>
-      </c>
-      <c r="I24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>8</v>
+        <v>57.14944074567327</v>
+      </c>
+      <c r="I24">
+        <v>13395.48906600827</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>t34</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>2018</v>
@@ -1060,99 +1307,147 @@
         <v>2025</v>
       </c>
       <c r="G25">
-        <v>100.1439906935565</v>
+        <v>60.37551761861104</v>
       </c>
       <c r="H25">
-        <v>235.9</v>
-      </c>
-      <c r="I25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>8</v>
+        <v>50.21141339634428</v>
+      </c>
+      <c r="I25">
+        <v>12693.99657038109</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>t46</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26">
         <v>2025</v>
       </c>
       <c r="G26">
-        <v>60.375517618611042</v>
+        <v>74.24372512599804</v>
       </c>
       <c r="H26">
-        <v>235.9</v>
-      </c>
-      <c r="I26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
+        <v>45.9031291937134</v>
+      </c>
+      <c r="I26">
+        <v>10027.77271131613</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>t9</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C27">
         <v>8</v>
       </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
       <c r="D27">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F27">
         <v>2025</v>
       </c>
       <c r="G27">
-        <v>51.921323261619712</v>
+        <v>44.77547412174609</v>
       </c>
       <c r="H27">
-        <v>235.9</v>
-      </c>
-      <c r="I27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>8</v>
+        <v>32.33794037545261</v>
+      </c>
+      <c r="I27">
+        <v>9293.792230019357</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>t25</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28">
         <v>2025</v>
       </c>
       <c r="G28">
-        <v>45.203298433934577</v>
+        <v>80.65274589786725</v>
       </c>
       <c r="H28">
-        <v>235.9</v>
-      </c>
-      <c r="I28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>8</v>
+        <v>41.40963418381629</v>
+      </c>
+      <c r="I28">
+        <v>8465.463164311363</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>t12</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>2018</v>
@@ -1164,177 +1459,261 @@
         <v>2025</v>
       </c>
       <c r="G29">
-        <v>74.248350224973478</v>
+        <v>80.58450989962152</v>
       </c>
       <c r="H29">
-        <v>235.9</v>
-      </c>
-      <c r="I29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>8</v>
+        <v>33.70200367484387</v>
+      </c>
+      <c r="I29">
+        <v>7581.720091546391</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>t98</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <v>2018</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G30">
-        <v>81.74993833009728</v>
+        <v>74.24835022497348</v>
       </c>
       <c r="H30">
-        <v>269.60000000000002</v>
-      </c>
-      <c r="I30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>8</v>
+        <v>17.81976321342012</v>
+      </c>
+      <c r="I30">
+        <v>4394.646384782901</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>t36</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>2018</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G31">
-        <v>109.7654851370938</v>
+        <v>51.92132326161971</v>
       </c>
       <c r="H31">
-        <v>269.60000000000002</v>
-      </c>
-      <c r="I31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>8</v>
+        <v>16.47601700137849</v>
+      </c>
+      <c r="I31">
+        <v>3821.712308377522</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>t96</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <v>2018</v>
       </c>
       <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>2025</v>
+      </c>
+      <c r="G32">
+        <v>45.20329843393458</v>
+      </c>
+      <c r="H32">
+        <v>7.197156349950488</v>
+      </c>
+      <c r="I32">
+        <v>1818.786271766078</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>t32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C33">
         <v>8</v>
       </c>
-      <c r="F32">
-        <v>2026</v>
-      </c>
-      <c r="G32">
-        <v>58.121305599416388</v>
-      </c>
-      <c r="H32">
-        <v>269.60000000000002</v>
-      </c>
-      <c r="I32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="D33">
+        <v>2018</v>
+      </c>
+      <c r="E33">
         <v>8</v>
-      </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="D33">
-        <v>2019</v>
-      </c>
-      <c r="E33">
-        <v>7</v>
       </c>
       <c r="F33">
         <v>2026</v>
       </c>
       <c r="G33">
-        <v>80.652745897867248</v>
+        <v>81.74993833009728</v>
       </c>
       <c r="H33">
-        <v>235.9</v>
-      </c>
-      <c r="I33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
+        <v>39.29141143694381</v>
+      </c>
+      <c r="I33">
+        <v>11425.82044630752</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>t91</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C34">
         <v>8</v>
       </c>
-      <c r="C34">
-        <v>6</v>
-      </c>
       <c r="D34">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F34">
         <v>2026</v>
       </c>
       <c r="G34">
-        <v>74.24372512599804</v>
+        <v>58.12130559941639</v>
       </c>
       <c r="H34">
-        <v>235.9</v>
-      </c>
-      <c r="I34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>8</v>
+        <v>37.22321288816197</v>
+      </c>
+      <c r="I34">
+        <v>10422.95381009603</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>t72</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35">
         <v>2026</v>
       </c>
       <c r="G35">
-        <v>87.175484689947368</v>
+        <v>55.45432171080196</v>
       </c>
       <c r="H35">
-        <v>235.9</v>
-      </c>
-      <c r="I35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>8</v>
+        <v>51.47912728890709</v>
+      </c>
+      <c r="I35">
+        <v>10061.82345587102</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>t100</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>2019</v>
@@ -1346,44 +1725,68 @@
         <v>2026</v>
       </c>
       <c r="G36">
-        <v>68.851007212790108</v>
+        <v>85.753342775907</v>
       </c>
       <c r="H36">
-        <v>235.9</v>
-      </c>
-      <c r="I36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
+        <v>41.83658419411963</v>
+      </c>
+      <c r="I36">
+        <v>9283.695619089001</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>t56</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C37">
         <v>8</v>
       </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
       <c r="D37">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F37">
         <v>2026</v>
       </c>
       <c r="G37">
-        <v>102.0260815884432</v>
+        <v>109.7654851370938</v>
       </c>
       <c r="H37">
-        <v>235.9</v>
-      </c>
-      <c r="I37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>8</v>
+        <v>21.7508894583756</v>
+      </c>
+      <c r="I37">
+        <v>6343.654245240179</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>t85</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1398,21 +1801,33 @@
         <v>2026</v>
       </c>
       <c r="G38">
-        <v>64.756529848986105</v>
+        <v>64.7565298489861</v>
       </c>
       <c r="H38">
-        <v>235.9</v>
-      </c>
-      <c r="I38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>8</v>
+        <v>24.63716850649067</v>
+      </c>
+      <c r="I38">
+        <v>5449.120734587938</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>t77</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D39">
         <v>2019</v>
@@ -1424,174 +1839,258 @@
         <v>2026</v>
       </c>
       <c r="G39">
-        <v>85.753342775907001</v>
+        <v>68.85100721279011</v>
       </c>
       <c r="H39">
-        <v>235.9</v>
-      </c>
-      <c r="I39" t="s">
+        <v>22.55707262006659</v>
+      </c>
+      <c r="I39">
+        <v>5132.606338897946</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>t83</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>2019</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>2026</v>
+      </c>
+      <c r="G40">
+        <v>102.0260815884432</v>
+      </c>
+      <c r="H40">
+        <v>12.27955103657385</v>
+      </c>
+      <c r="I40">
+        <v>3067.678289615876</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>t8</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C41">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40">
+      <c r="D41">
+        <v>2016</v>
+      </c>
+      <c r="E41">
         <v>11</v>
-      </c>
-      <c r="D40">
-        <v>2016</v>
-      </c>
-      <c r="E40">
-        <v>11</v>
-      </c>
-      <c r="F40">
-        <v>2027</v>
-      </c>
-      <c r="G40">
-        <v>113.90542167885241</v>
-      </c>
-      <c r="H40">
-        <v>370.7</v>
-      </c>
-      <c r="I40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41">
-        <v>10</v>
-      </c>
-      <c r="D41">
-        <v>2017</v>
-      </c>
-      <c r="E41">
-        <v>10</v>
       </c>
       <c r="F41">
         <v>2027</v>
       </c>
       <c r="G41">
-        <v>75.33145644175508</v>
+        <v>113.9054216788524</v>
       </c>
       <c r="H41">
-        <v>337</v>
-      </c>
-      <c r="I41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>8</v>
+        <v>25.68291459703985</v>
+      </c>
+      <c r="I41">
+        <v>9933.88602306111</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>t23</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D42">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F42">
         <v>2027</v>
       </c>
       <c r="G42">
-        <v>80.294889706497173</v>
+        <v>116.9983912065247</v>
       </c>
       <c r="H42">
-        <v>337</v>
-      </c>
-      <c r="I42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>8</v>
+        <v>28.99531301730712</v>
+      </c>
+      <c r="I42">
+        <v>6722.615274085804</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>t29</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F43">
         <v>2027</v>
       </c>
       <c r="G43">
-        <v>105.8775993582192</v>
+        <v>75.33145644175508</v>
       </c>
       <c r="H43">
-        <v>303.3</v>
-      </c>
-      <c r="I43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>8</v>
+        <v>14.55204825011102</v>
+      </c>
+      <c r="I43">
+        <v>4805.273261235322</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>t44</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D44">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E44">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F44">
         <v>2027</v>
       </c>
       <c r="G44">
-        <v>116.9983912065247</v>
+        <v>80.29488970649717</v>
       </c>
       <c r="H44">
-        <v>235.9</v>
-      </c>
-      <c r="I44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>8</v>
+        <v>10.68390853505856</v>
+      </c>
+      <c r="I44">
+        <v>3521.526839715253</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>t69</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D45">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E45">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F45">
         <v>2027</v>
       </c>
       <c r="G45">
-        <v>55.454321710801963</v>
+        <v>105.8775993582192</v>
       </c>
       <c r="H45">
-        <v>235.9</v>
-      </c>
-      <c r="I45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>8</v>
+        <v>11.13165423668036</v>
+      </c>
+      <c r="I45">
+        <v>3088.771970797582</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>t87</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C46">
         <v>14</v>
@@ -1606,18 +2105,30 @@
         <v>2028</v>
       </c>
       <c r="G46">
-        <v>68.496229412565356</v>
+        <v>68.49622941256536</v>
       </c>
       <c r="H46">
-        <v>471.80000000000013</v>
-      </c>
-      <c r="I46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>8</v>
+        <v>47.43606510326312</v>
+      </c>
+      <c r="I46">
+        <v>22161.9086935484</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>t26</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C47">
         <v>12</v>
@@ -1632,255 +2143,375 @@
         <v>2028</v>
       </c>
       <c r="G47">
-        <v>59.498810384929101</v>
+        <v>59.4988103849291</v>
       </c>
       <c r="H47">
-        <v>404.4</v>
-      </c>
-      <c r="I47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>8</v>
+        <v>42.74903662797804</v>
+      </c>
+      <c r="I47">
+        <v>16784.54295579575</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>t48</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C48">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E48">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F48">
         <v>2028</v>
       </c>
       <c r="G48">
-        <v>80.08203913913627</v>
+        <v>43.20822830706231</v>
       </c>
       <c r="H48">
-        <v>370.7</v>
-      </c>
-      <c r="I48" t="s">
+        <v>33.92073080128333</v>
+      </c>
+      <c r="I48">
+        <v>8076.116898135245</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>t28</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C49">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
       <c r="D49">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F49">
         <v>2028</v>
       </c>
       <c r="G49">
-        <v>43.208228307062313</v>
+        <v>80.08203913913627</v>
       </c>
       <c r="H49">
-        <v>235.9</v>
-      </c>
-      <c r="I49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>8</v>
+        <v>13.26725475960777</v>
+      </c>
+      <c r="I49">
+        <v>5280.012636545964</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>t58</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C50">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="E50">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F50">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="G50">
-        <v>54.82102605049981</v>
+        <v>56.78689997059914</v>
       </c>
       <c r="H50">
-        <v>471.80000000000013</v>
-      </c>
-      <c r="I50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>8</v>
+        <v>9.744653525627491</v>
+      </c>
+      <c r="I50">
+        <v>1959.409712908773</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>t43</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F51">
         <v>2029</v>
       </c>
       <c r="G51">
-        <v>131.20546777441871</v>
+        <v>75.06267798325804</v>
       </c>
       <c r="H51">
-        <v>370.7</v>
-      </c>
-      <c r="I51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>8</v>
+        <v>52.60682229616526</v>
+      </c>
+      <c r="I51">
+        <v>18790.66891975815</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>t81</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C52">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D52">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E52">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F52">
         <v>2029</v>
       </c>
       <c r="G52">
-        <v>82.579635063929501</v>
+        <v>54.82102605049981</v>
       </c>
       <c r="H52">
-        <v>370.7</v>
-      </c>
-      <c r="I52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>8</v>
+        <v>35.9746041917535</v>
+      </c>
+      <c r="I52">
+        <v>15881.52337533794</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>t89</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D53">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F53">
         <v>2029</v>
       </c>
       <c r="G53">
-        <v>89.626706511181482</v>
+        <v>73.74859112074968</v>
       </c>
       <c r="H53">
-        <v>337</v>
-      </c>
-      <c r="I53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>8</v>
+        <v>50.40501871098758</v>
+      </c>
+      <c r="I53">
+        <v>11710.59233766759</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>t86</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D54">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F54">
         <v>2029</v>
       </c>
       <c r="G54">
-        <v>75.062677983258041</v>
+        <v>74.1650279595103</v>
       </c>
       <c r="H54">
-        <v>337</v>
-      </c>
-      <c r="I54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>8</v>
+        <v>49.98710640585534</v>
+      </c>
+      <c r="I54">
+        <v>11626.68837863892</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>t7</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D55">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="E55">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F55">
         <v>2029</v>
       </c>
       <c r="G55">
-        <v>56.786899970599137</v>
+        <v>89.62670651118148</v>
       </c>
       <c r="H55">
-        <v>235.9</v>
-      </c>
-      <c r="I55" t="s">
+        <v>33.05054757578852</v>
+      </c>
+      <c r="I55">
+        <v>10700.42785477783</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>t13</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C56">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
       <c r="D56">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="E56">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F56">
         <v>2029</v>
       </c>
       <c r="G56">
-        <v>74.165027959510297</v>
+        <v>131.2054677744187</v>
       </c>
       <c r="H56">
-        <v>235.9</v>
-      </c>
-      <c r="I56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>8</v>
+        <v>14.40105081587985</v>
+      </c>
+      <c r="I56">
+        <v>5478.915521907691</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>t97</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D57">
         <v>2022</v>
@@ -1892,96 +2523,144 @@
         <v>2029</v>
       </c>
       <c r="G57">
-        <v>73.74859112074968</v>
+        <v>71.97359381000069</v>
       </c>
       <c r="H57">
-        <v>235.9</v>
-      </c>
-      <c r="I57" t="s">
+        <v>23.33357970525148</v>
+      </c>
+      <c r="I57">
+        <v>5450.395458200954</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>t55</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C58">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58">
-        <v>4</v>
-      </c>
       <c r="D58">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="E58">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F58">
         <v>2029</v>
       </c>
       <c r="G58">
-        <v>71.973593810000693</v>
+        <v>82.5796350639295</v>
       </c>
       <c r="H58">
-        <v>235.9</v>
-      </c>
-      <c r="I58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>8</v>
+        <v>12.5037579716027</v>
+      </c>
+      <c r="I58">
+        <v>4788.834644094511</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>t11</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>2023</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59">
+        <v>2029</v>
+      </c>
+      <c r="G59">
+        <v>87.9469819760162</v>
+      </c>
+      <c r="H59">
+        <v>7.004438308158397</v>
+      </c>
+      <c r="I59">
+        <v>1471.63326304287</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>t60</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C60">
         <v>15</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <v>2015</v>
       </c>
-      <c r="E59">
+      <c r="E60">
         <v>15</v>
-      </c>
-      <c r="F59">
-        <v>2030</v>
-      </c>
-      <c r="G59">
-        <v>76.103072316143383</v>
-      </c>
-      <c r="H59">
-        <v>505.50000000000011</v>
-      </c>
-      <c r="I59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60">
-        <v>14</v>
-      </c>
-      <c r="D60">
-        <v>2016</v>
-      </c>
-      <c r="E60">
-        <v>14</v>
       </c>
       <c r="F60">
         <v>2030</v>
       </c>
       <c r="G60">
-        <v>60.456857551476133</v>
+        <v>76.10307231614338</v>
       </c>
       <c r="H60">
-        <v>471.80000000000013</v>
-      </c>
-      <c r="I60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>8</v>
+        <v>43.90582548331464</v>
+      </c>
+      <c r="I60">
+        <v>20869.2227164981</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>t54</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C61">
         <v>11</v>
@@ -1996,73 +2675,109 @@
         <v>2030</v>
       </c>
       <c r="G61">
-        <v>94.887484499080642</v>
+        <v>94.88748449908064</v>
       </c>
       <c r="H61">
-        <v>370.7</v>
-      </c>
-      <c r="I61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>8</v>
+        <v>52.63994919929025</v>
+      </c>
+      <c r="I61">
+        <v>18533.9509800191</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>t99</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C62">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E62">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F62">
         <v>2030</v>
       </c>
       <c r="G62">
-        <v>80.375690010595022</v>
+        <v>61.23185199897275</v>
       </c>
       <c r="H62">
-        <v>370.7</v>
-      </c>
-      <c r="I62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>8</v>
+        <v>52.42760565319222</v>
+      </c>
+      <c r="I62">
+        <v>18333.31580475721</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>t78</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C63">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D63">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="E63">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F63">
         <v>2030</v>
       </c>
       <c r="G63">
-        <v>61.231851998972751</v>
+        <v>60.45685755147613</v>
       </c>
       <c r="H63">
-        <v>337</v>
-      </c>
-      <c r="I63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>8</v>
+        <v>35.43114021565859</v>
+      </c>
+      <c r="I63">
+        <v>15712.242098204</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>t30</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D64">
         <v>2023</v>
@@ -2074,21 +2789,33 @@
         <v>2030</v>
       </c>
       <c r="G64">
-        <v>95.230887046898232</v>
+        <v>70.02223561792775</v>
       </c>
       <c r="H64">
-        <v>235.9</v>
-      </c>
-      <c r="I64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>8</v>
+        <v>46.18001035163629</v>
+      </c>
+      <c r="I64">
+        <v>11786.58042275772</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>t4</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D65">
         <v>2023</v>
@@ -2100,174 +2827,258 @@
         <v>2030</v>
       </c>
       <c r="G65">
-        <v>87.946981976016204</v>
+        <v>95.23088704689823</v>
       </c>
       <c r="H65">
-        <v>235.9</v>
-      </c>
-      <c r="I65" t="s">
+        <v>48.41728420253737</v>
+      </c>
+      <c r="I65">
+        <v>10419.71254782236</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>t64</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C66">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66">
-        <v>7</v>
-      </c>
       <c r="D66">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E66">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F66">
         <v>2030</v>
       </c>
       <c r="G66">
-        <v>70.022235617927748</v>
+        <v>80.37569001059502</v>
       </c>
       <c r="H66">
-        <v>235.9</v>
-      </c>
-      <c r="I66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>8</v>
+        <v>13.61984279125046</v>
+      </c>
+      <c r="I66">
+        <v>4657.339151238674</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>t38</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C67">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="E67">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F67">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="G67">
-        <v>68.0554104081899</v>
+        <v>60.37280018125502</v>
       </c>
       <c r="H67">
-        <v>505.50000000000011</v>
-      </c>
-      <c r="I67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>8</v>
+        <v>14.69170867950547</v>
+      </c>
+      <c r="I67">
+        <v>2764.628744164867</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>t49</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C68">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D68">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E68">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F68">
         <v>2031</v>
       </c>
       <c r="G68">
-        <v>81.393902060355956</v>
+        <v>97.97177881846579</v>
       </c>
       <c r="H68">
-        <v>471.80000000000013</v>
-      </c>
-      <c r="I68" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>8</v>
+        <v>54.1713070186126</v>
+      </c>
+      <c r="I68">
+        <v>23602.41546695219</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>compra</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>t17</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C69">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D69">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E69">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F69">
         <v>2031</v>
       </c>
       <c r="G69">
-        <v>97.971778818465793</v>
+        <v>98.27697373699242</v>
       </c>
       <c r="H69">
-        <v>404.4</v>
-      </c>
-      <c r="I69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>8</v>
+        <v>46.20798460850816</v>
+      </c>
+      <c r="I69">
+        <v>16437.92575876512</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>t1</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D70">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E70">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F70">
         <v>2031</v>
       </c>
       <c r="G70">
-        <v>89.698255763323971</v>
+        <v>81.39390206035596</v>
       </c>
       <c r="H70">
-        <v>370.7</v>
-      </c>
-      <c r="I70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>8</v>
+        <v>25.97374988559697</v>
+      </c>
+      <c r="I70">
+        <v>12310.99634798506</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>t45</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D71">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71">
         <v>2031</v>
       </c>
       <c r="G71">
-        <v>98.276973736992417</v>
+        <v>41.61824593406305</v>
       </c>
       <c r="H71">
-        <v>337</v>
-      </c>
-      <c r="I71" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>8</v>
+        <v>32.19662570895758</v>
+      </c>
+      <c r="I71">
+        <v>9565.727636146676</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>t65</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C72">
         <v>9</v>
@@ -2282,47 +3093,71 @@
         <v>2031</v>
       </c>
       <c r="G72">
-        <v>41.618245934063047</v>
+        <v>92.69549129353835</v>
       </c>
       <c r="H72">
-        <v>303.3</v>
-      </c>
-      <c r="I72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>8</v>
+        <v>26.68007319056721</v>
+      </c>
+      <c r="I72">
+        <v>8345.292877609492</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>t80</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C73">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="E73">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F73">
         <v>2031</v>
       </c>
       <c r="G73">
-        <v>92.695491293538353</v>
+        <v>68.0554104081899</v>
       </c>
       <c r="H73">
-        <v>303.3</v>
-      </c>
-      <c r="I73" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>8</v>
+        <v>13.49243682166495</v>
+      </c>
+      <c r="I73">
+        <v>7019.948556324363</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>t42</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D74">
         <v>2024</v>
@@ -2334,200 +3169,296 @@
         <v>2031</v>
       </c>
       <c r="G74">
-        <v>60.372800181255023</v>
+        <v>22.49716632351689</v>
       </c>
       <c r="H74">
-        <v>235.9</v>
-      </c>
-      <c r="I74" t="s">
+        <v>25.7066197756668</v>
+      </c>
+      <c r="I74">
+        <v>5532.906709926879</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>t63</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C75">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75">
-        <v>7</v>
-      </c>
       <c r="D75">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="E75">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F75">
         <v>2031</v>
       </c>
       <c r="G75">
-        <v>22.49716632351689</v>
+        <v>89.69825576332397</v>
       </c>
       <c r="H75">
-        <v>235.9</v>
-      </c>
-      <c r="I75" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>8</v>
+        <v>15.05398441867498</v>
+      </c>
+      <c r="I75">
+        <v>5316.934353250846</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>t37</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C76">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D76">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E76">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F76">
         <v>2032</v>
       </c>
       <c r="G76">
-        <v>96.122465271844263</v>
+        <v>108.8178629461981</v>
       </c>
       <c r="H76">
-        <v>471.80000000000013</v>
-      </c>
-      <c r="I76" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>8</v>
+        <v>42.73250756970811</v>
+      </c>
+      <c r="I76">
+        <v>13155.41256295767</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>t95</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C77">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D77">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E77">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F77">
         <v>2032</v>
       </c>
       <c r="G77">
-        <v>66.455159474387244</v>
+        <v>96.12246527184426</v>
       </c>
       <c r="H77">
-        <v>404.4</v>
-      </c>
-      <c r="I77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>8</v>
+        <v>19.61717220594332</v>
+      </c>
+      <c r="I77">
+        <v>9088.659683835145</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>t84</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C78">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E78">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78">
         <v>2032</v>
       </c>
       <c r="G78">
-        <v>75.620715365504793</v>
+        <v>66.45515947438724</v>
       </c>
       <c r="H78">
-        <v>370.7</v>
-      </c>
-      <c r="I78" t="s">
+        <v>19.46406630850971</v>
+      </c>
+      <c r="I78">
+        <v>8323.278836224792</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>t51</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C79">
         <v>11</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79">
-        <v>10</v>
-      </c>
       <c r="D79">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E79">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79">
         <v>2032</v>
       </c>
       <c r="G79">
-        <v>108.8178629461981</v>
+        <v>75.62071536550479</v>
       </c>
       <c r="H79">
-        <v>337</v>
-      </c>
-      <c r="I79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>8</v>
+        <v>20.73111273655678</v>
+      </c>
+      <c r="I79">
+        <v>7356.525658599475</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>t27</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C80">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D80">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E80">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F80">
         <v>2033</v>
       </c>
       <c r="G80">
-        <v>105.14255423169099</v>
+        <v>60.35501848869526</v>
       </c>
       <c r="H80">
-        <v>438.1</v>
-      </c>
-      <c r="I80" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>8</v>
+        <v>47.39821521687777</v>
+      </c>
+      <c r="I80">
+        <v>19306.53698780551</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>t93</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C81">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D81">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E81">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F81">
         <v>2033</v>
       </c>
       <c r="G81">
-        <v>60.355018488695258</v>
+        <v>77.8237547353862</v>
       </c>
       <c r="H81">
-        <v>404.4</v>
-      </c>
-      <c r="I81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>8</v>
+        <v>39.40897777574036</v>
+      </c>
+      <c r="I81">
+        <v>12188.00537079125</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>t82</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C82">
         <v>12</v>
@@ -2542,44 +3473,68 @@
         <v>2033</v>
       </c>
       <c r="G82">
-        <v>51.799055968611682</v>
+        <v>51.79905596861168</v>
       </c>
       <c r="H82">
-        <v>404.4</v>
-      </c>
-      <c r="I82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>8</v>
+        <v>23.61419259098986</v>
+      </c>
+      <c r="I82">
+        <v>9253.53993640043</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>t14</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C83">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D83">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="E83">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F83">
         <v>2033</v>
       </c>
       <c r="G83">
-        <v>60.176055094558571</v>
+        <v>105.142554231691</v>
       </c>
       <c r="H83">
-        <v>337</v>
-      </c>
-      <c r="I83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>8</v>
+        <v>16.77278161947624</v>
+      </c>
+      <c r="I83">
+        <v>7970.464727307475</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>t40</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C84">
         <v>10</v>
@@ -2594,200 +3549,296 @@
         <v>2033</v>
       </c>
       <c r="G84">
-        <v>77.823754735386203</v>
+        <v>60.17605509455857</v>
       </c>
       <c r="H84">
-        <v>337</v>
-      </c>
-      <c r="I84" t="s">
+        <v>7.921470150261269</v>
+      </c>
+      <c r="I84">
+        <v>2608.473571287116</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>t20</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C85">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85">
-        <v>15</v>
-      </c>
       <c r="D85">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E85">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F85">
         <v>2034</v>
       </c>
       <c r="G85">
-        <v>75.087548247106184</v>
+        <v>67.90576678291427</v>
       </c>
       <c r="H85">
-        <v>505.50000000000011</v>
-      </c>
-      <c r="I85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>8</v>
+        <v>37.73394661397347</v>
+      </c>
+      <c r="I85">
+        <v>13068.05944142919</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>t76</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C86">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E86">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F86">
         <v>2034</v>
       </c>
       <c r="G86">
-        <v>67.90576678291427</v>
+        <v>76.02270846363795</v>
       </c>
       <c r="H86">
-        <v>370.7</v>
-      </c>
-      <c r="I86" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>8</v>
+        <v>36.96216310482384</v>
+      </c>
+      <c r="I86">
+        <v>11666.79297649443</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>t35</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D87">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="E87">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F87">
         <v>2034</v>
       </c>
       <c r="G87">
-        <v>76.022708463637954</v>
+        <v>75.08754824710618</v>
       </c>
       <c r="H87">
-        <v>337</v>
-      </c>
-      <c r="I87" t="s">
+        <v>23.60627384720201</v>
+      </c>
+      <c r="I87">
+        <v>11409.89737974315</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>t92</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C88">
         <v>11</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88">
-        <v>15</v>
-      </c>
       <c r="D88">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E88">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F88">
         <v>2035</v>
       </c>
       <c r="G88">
-        <v>90.781088128730602</v>
+        <v>94.29412382643653</v>
       </c>
       <c r="H88">
-        <v>505.50000000000011</v>
-      </c>
-      <c r="I88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B89" t="s">
-        <v>8</v>
+        <v>49.59686929031815</v>
+      </c>
+      <c r="I88">
+        <v>16789.38465215379</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>t21</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C89">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E89">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F89">
         <v>2035</v>
       </c>
       <c r="G89">
-        <v>88.224707116018038</v>
+        <v>90.7810881287306</v>
       </c>
       <c r="H89">
-        <v>471.80000000000013</v>
-      </c>
-      <c r="I89" t="s">
+        <v>29.07341915970629</v>
+      </c>
+      <c r="I89">
+        <v>13810.73026797965</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>t66</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
+      </c>
+      <c r="C90">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90">
-        <v>12</v>
-      </c>
       <c r="D90">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E90">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F90">
         <v>2035</v>
       </c>
       <c r="G90">
-        <v>61.4628368659138</v>
+        <v>95.0888817521014</v>
       </c>
       <c r="H90">
-        <v>404.4</v>
-      </c>
-      <c r="I90" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>8</v>
+        <v>18.18529859695998</v>
+      </c>
+      <c r="I90">
+        <v>7108.734947976952</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>t74</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C91">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E91">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91">
         <v>2035</v>
       </c>
       <c r="G91">
-        <v>91.285363213023388</v>
+        <v>61.4628368659138</v>
       </c>
       <c r="H91">
-        <v>370.7</v>
-      </c>
-      <c r="I91" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>8</v>
+        <v>12.00733426364448</v>
+      </c>
+      <c r="I91">
+        <v>5137.117184616407</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>t52</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C92">
         <v>11</v>
@@ -2802,96 +3853,144 @@
         <v>2035</v>
       </c>
       <c r="G92">
-        <v>95.0888817521014</v>
+        <v>91.28536321302339</v>
       </c>
       <c r="H92">
-        <v>370.7</v>
-      </c>
-      <c r="I92" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>8</v>
+        <v>12.44347322315986</v>
+      </c>
+      <c r="I92">
+        <v>4766.947622956885</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>t75</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C93">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D93">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="E93">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F93">
         <v>2035</v>
       </c>
       <c r="G93">
-        <v>94.294123826436532</v>
+        <v>88.22470711601804</v>
       </c>
       <c r="H93">
-        <v>370.7</v>
-      </c>
-      <c r="I93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>8</v>
+        <v>7.778422074170647</v>
+      </c>
+      <c r="I93">
+        <v>3559.956801811487</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>t70</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C94">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D94">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E94">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F94">
         <v>2036</v>
       </c>
       <c r="G94">
-        <v>89.93280847439884</v>
+        <v>77.26897958305167</v>
       </c>
       <c r="H94">
-        <v>505.50000000000011</v>
-      </c>
-      <c r="I94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B95" t="s">
-        <v>8</v>
+        <v>14.32242829246267</v>
+      </c>
+      <c r="I94">
+        <v>6590.546207729119</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>t62</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C95">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E95">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F95">
         <v>2036</v>
       </c>
       <c r="G95">
-        <v>77.268979583051674</v>
+        <v>89.93280847439884</v>
       </c>
       <c r="H95">
-        <v>471.80000000000013</v>
-      </c>
-      <c r="I95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>8</v>
+        <v>9.917853466512366</v>
+      </c>
+      <c r="I95">
+        <v>5038.615868859276</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>t39</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C96">
         <v>12</v>
@@ -2909,15 +4008,27 @@
         <v>109.4848980785185</v>
       </c>
       <c r="H96">
-        <v>404.4</v>
-      </c>
-      <c r="I96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B97" t="s">
-        <v>8</v>
+        <v>9.816489554676972</v>
+      </c>
+      <c r="I96">
+        <v>3970.875267629671</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>t15</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C97">
         <v>14</v>
@@ -2932,18 +4043,30 @@
         <v>2037</v>
       </c>
       <c r="G97">
-        <v>69.309246287691209</v>
+        <v>69.30924628769121</v>
       </c>
       <c r="H97">
-        <v>471.80000000000013</v>
-      </c>
-      <c r="I97" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
-        <v>8</v>
+        <v>57.62000847779603</v>
+      </c>
+      <c r="I97">
+        <v>26594.6243832441</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>t68</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C98">
         <v>14</v>
@@ -2958,18 +4081,30 @@
         <v>2037</v>
       </c>
       <c r="G98">
-        <v>99.315225924353044</v>
+        <v>99.31522592435304</v>
       </c>
       <c r="H98">
-        <v>471.80000000000013</v>
-      </c>
-      <c r="I98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
-        <v>8</v>
+        <v>36.843659749484</v>
+      </c>
+      <c r="I98">
+        <v>17977.09784637024</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>t53</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C99">
         <v>13</v>
@@ -2984,18 +4119,30 @@
         <v>2037</v>
       </c>
       <c r="G99">
-        <v>69.491312486008638</v>
+        <v>69.49131248600864</v>
       </c>
       <c r="H99">
-        <v>438.1</v>
-      </c>
-      <c r="I99" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
-        <v>8</v>
+        <v>15.14256868450655</v>
+      </c>
+      <c r="I99">
+        <v>6572.43152867719</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>t73</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C100">
         <v>15</v>
@@ -3010,18 +4157,30 @@
         <v>2038</v>
       </c>
       <c r="G100">
-        <v>75.246938633093521</v>
+        <v>75.24693863309352</v>
       </c>
       <c r="H100">
-        <v>505.50000000000011</v>
-      </c>
-      <c r="I100" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
-        <v>8</v>
+        <v>54.01176464802891</v>
+      </c>
+      <c r="I100">
+        <v>27046.05491304079</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>t79</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>eucalipto</t>
+        </is>
       </c>
       <c r="C101">
         <v>14</v>
@@ -3036,13 +4195,18 @@
         <v>2038</v>
       </c>
       <c r="G101">
-        <v>81.214704974577728</v>
+        <v>81.21470497457773</v>
       </c>
       <c r="H101">
-        <v>471.80000000000013</v>
-      </c>
-      <c r="I101" t="s">
-        <v>11</v>
+        <v>24.69604882304727</v>
+      </c>
+      <c r="I101">
+        <v>12355.81879527457</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>propria</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/01_raw_data/dados_brutos.xlsx
+++ b/01_raw_data/dados_brutos.xlsx
@@ -412,38 +412,38 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t50</t>
+          <t>t83</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="G2">
-        <v>55.74289978043856</v>
+        <v>92.24436347978256</v>
       </c>
       <c r="H2">
-        <v>58.17705082699815</v>
+        <v>52.03449453320457</v>
       </c>
       <c r="I2">
-        <v>12524.57106072168</v>
+        <v>20971.43767214065</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>propria</t>
+          <t>compra</t>
         </is>
       </c>
     </row>
@@ -455,67 +455,67 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="G3">
-        <v>67.47263543621528</v>
+        <v>88.67404299090325</v>
       </c>
       <c r="H3">
-        <v>7.597528446360983</v>
+        <v>55.19266743080713</v>
       </c>
       <c r="I3">
-        <v>1330.13352556229</v>
+        <v>20604.86316460231</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>propria</t>
+          <t>compra</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t88</t>
+          <t>t36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="G4">
-        <v>71.12116263626085</v>
+        <v>54.11719992358319</v>
       </c>
       <c r="H4">
-        <v>55.75963556726161</v>
+        <v>44.66715286839122</v>
       </c>
       <c r="I4">
-        <v>12045.27373177402</v>
+        <v>18657.91575858735</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -526,266 +526,266 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t71</t>
+          <t>t88</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>2015</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="G5">
-        <v>71.19722623730122</v>
+        <v>72.22555511324198</v>
       </c>
       <c r="H5">
-        <v>54.80030069157851</v>
+        <v>50.13332801910933</v>
       </c>
       <c r="I5">
-        <v>11538.86539676384</v>
+        <v>18117.27874531658</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>propria</t>
+          <t>compra</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t24</t>
+          <t>t59</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>2014</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="G6">
-        <v>62.90184897307222</v>
+        <v>58.73085169034375</v>
       </c>
       <c r="H6">
-        <v>32.46481794797931</v>
+        <v>51.1146474503005</v>
       </c>
       <c r="I6">
-        <v>7063.763734364121</v>
+        <v>17823.8310634585</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>propria</t>
+          <t>compra</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t61</t>
+          <t>t71</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="G7">
-        <v>74.09435983971673</v>
+        <v>76.14403147085332</v>
       </c>
       <c r="H7">
-        <v>40.10569926379411</v>
+        <v>52.99812484936343</v>
       </c>
       <c r="I7">
-        <v>7016.164493265526</v>
+        <v>17406.21776751595</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>propria</t>
+          <t>compra</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t90</t>
+          <t>t18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="G8">
-        <v>67.93991147210292</v>
+        <v>97.87347404851026</v>
       </c>
       <c r="H8">
-        <v>13.79565441181363</v>
+        <v>51.4049590870823</v>
       </c>
       <c r="I8">
-        <v>3364.421714655224</v>
+        <v>17010.8643798773</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>propria</t>
+          <t>compra</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t94</t>
+          <t>t23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="G9">
-        <v>51.12404129329425</v>
+        <v>110.2442538790126</v>
       </c>
       <c r="H9">
-        <v>30.81876622873885</v>
+        <v>35.2262603598967</v>
       </c>
       <c r="I9">
-        <v>6740.583513491343</v>
+        <v>16806.25811346874</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>propria</t>
+          <t>compra</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t57</t>
+          <t>t61</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>2014</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="G10">
-        <v>66.74636097700527</v>
+        <v>74.21001266871376</v>
       </c>
       <c r="H10">
-        <v>14.63102372157178</v>
+        <v>42.49991584186304</v>
       </c>
       <c r="I10">
-        <v>3775.556375483594</v>
+        <v>15807.84003252445</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>propria</t>
+          <t>compra</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t33</t>
+          <t>t56</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E11">
         <v>8</v>
       </c>
       <c r="F11">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="G11">
-        <v>106.374022611301</v>
+        <v>72.95355388900302</v>
       </c>
       <c r="H11">
-        <v>11.43682448903365</v>
+        <v>55.04791793986097</v>
       </c>
       <c r="I11">
-        <v>3182.53100099949</v>
+        <v>15685.4025890159</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>propria</t>
+          <t>compra</t>
         </is>
       </c>
     </row>
@@ -797,67 +797,67 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="G12">
-        <v>63.37473081181999</v>
+        <v>59.97855637949163</v>
       </c>
       <c r="H12">
-        <v>53.57827152684434</v>
+        <v>42.45716028465615</v>
       </c>
       <c r="I12">
-        <v>10346.44537772654</v>
+        <v>15557.90144191416</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>compra</t>
+          <t>propria</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t5</t>
+          <t>t46</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="G13">
-        <v>68.46986134939746</v>
+        <v>62.71928091746193</v>
       </c>
       <c r="H13">
-        <v>31.40661988009112</v>
+        <v>45.80621164136056</v>
       </c>
       <c r="I13">
-        <v>8000.964248094293</v>
+        <v>15468.73283413638</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -868,34 +868,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t67</t>
+          <t>t98</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F14">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="G14">
-        <v>96.67178069716098</v>
+        <v>95.25173024836637</v>
       </c>
       <c r="H14">
-        <v>35.6693216085603</v>
+        <v>37.41837125483497</v>
       </c>
       <c r="I14">
-        <v>7838.325999990164</v>
+        <v>15410.01512665646</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -906,34 +906,34 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t47</t>
+          <t>t16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="G15">
-        <v>73.06725109190219</v>
+        <v>78.9886859711546</v>
       </c>
       <c r="H15">
-        <v>38.03021116471191</v>
+        <v>53.72054384481282</v>
       </c>
       <c r="I15">
-        <v>7656.404600332245</v>
+        <v>15306.50755336752</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -944,34 +944,34 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t19</t>
+          <t>t91</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="G16">
-        <v>94.38583646543636</v>
+        <v>78.62318131043071</v>
       </c>
       <c r="H16">
-        <v>33.25300692183622</v>
+        <v>50.61509062422657</v>
       </c>
       <c r="I16">
-        <v>7216.334091203854</v>
+        <v>14258.53203837579</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -982,34 +982,34 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t41</t>
+          <t>t57</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>2017</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="G17">
-        <v>78.11005310848923</v>
+        <v>69.40608981732993</v>
       </c>
       <c r="H17">
-        <v>50.76681843957836</v>
+        <v>55.75706912769768</v>
       </c>
       <c r="I17">
-        <v>12628.16756479426</v>
+        <v>14161.39009653517</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1020,34 +1020,34 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t31</t>
+          <t>t96</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="G18">
-        <v>110.9942592576808</v>
+        <v>76.72178086527863</v>
       </c>
       <c r="H18">
-        <v>29.42770524439283</v>
+        <v>28.14854151077857</v>
       </c>
       <c r="I18">
-        <v>6799.472489115494</v>
+        <v>13265.42297174843</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1058,34 +1058,34 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t10</t>
+          <t>t5</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F19">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="G19">
-        <v>83.96026030211097</v>
+        <v>98.90369906746164</v>
       </c>
       <c r="H19">
-        <v>27.07069346096796</v>
+        <v>27.09460534054634</v>
       </c>
       <c r="I19">
-        <v>6249.961113295014</v>
+        <v>12911.59470362362</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1096,34 +1096,34 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t59</t>
+          <t>t47</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="G20">
-        <v>87.17548468994737</v>
+        <v>93.58461548031312</v>
       </c>
       <c r="H20">
-        <v>18.53902012531999</v>
+        <v>40.99950169272221</v>
       </c>
       <c r="I20">
-        <v>3024.459205024349</v>
+        <v>12795.75028628756</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1134,34 +1134,34 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t2</t>
+          <t>t19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F21">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="G21">
-        <v>76.90656587966367</v>
+        <v>59.0540370187741</v>
       </c>
       <c r="H21">
-        <v>8.839698076229276</v>
+        <v>30.72055557192914</v>
       </c>
       <c r="I21">
-        <v>2407.65937057591</v>
+        <v>12710.84864928616</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1172,34 +1172,34 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t18</t>
+          <t>t17</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C22">
         <v>6</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
         <v>6</v>
       </c>
       <c r="F22">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="G22">
-        <v>100.1439906935565</v>
+        <v>73.88369160466058</v>
       </c>
       <c r="H22">
-        <v>9.944138561963594</v>
+        <v>54.58859812077347</v>
       </c>
       <c r="I22">
-        <v>2008.702983325283</v>
+        <v>11998.46519998854</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1215,29 +1215,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="G23">
-        <v>78.46338228939099</v>
+        <v>113.0829060454998</v>
       </c>
       <c r="H23">
-        <v>5.980506345570732</v>
+        <v>40.13532877847585</v>
       </c>
       <c r="I23">
-        <v>1307.679771643294</v>
+        <v>11800.61067759926</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1248,72 +1248,72 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t16</t>
+          <t>t89</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>2025</v>
       </c>
       <c r="G24">
-        <v>67.49545142849927</v>
+        <v>85.55828264901086</v>
       </c>
       <c r="H24">
-        <v>57.14944074567327</v>
+        <v>35.7877209625087</v>
       </c>
       <c r="I24">
-        <v>13395.48906600827</v>
+        <v>11590.79424330587</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>compra</t>
+          <t>propria</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t34</t>
+          <t>t31</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <v>2025</v>
       </c>
       <c r="G25">
-        <v>60.37551761861104</v>
+        <v>66.8843629509912</v>
       </c>
       <c r="H25">
-        <v>50.21141339634428</v>
+        <v>35.85294936985397</v>
       </c>
       <c r="I25">
-        <v>12693.99657038109</v>
+        <v>11137.40650813161</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1324,34 +1324,34 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t46</t>
+          <t>t2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F26">
         <v>2025</v>
       </c>
       <c r="G26">
-        <v>74.24372512599804</v>
+        <v>68.38771391518928</v>
       </c>
       <c r="H26">
-        <v>45.9031291937134</v>
+        <v>37.75843944155622</v>
       </c>
       <c r="I26">
-        <v>10027.77271131613</v>
+        <v>10891.78810625084</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1362,34 +1362,34 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t9</t>
+          <t>t69</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27">
         <v>2025</v>
       </c>
       <c r="G27">
-        <v>44.77547412174609</v>
+        <v>93.54536984625997</v>
       </c>
       <c r="H27">
-        <v>32.33794037545261</v>
+        <v>43.04729292581056</v>
       </c>
       <c r="I27">
-        <v>9293.792230019357</v>
+        <v>10418.53652936625</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1400,34 +1400,34 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t25</t>
+          <t>t50</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F28">
         <v>2025</v>
       </c>
       <c r="G28">
-        <v>80.65274589786725</v>
+        <v>72.65098487659037</v>
       </c>
       <c r="H28">
-        <v>41.40963418381629</v>
+        <v>28.14837526976174</v>
       </c>
       <c r="I28">
-        <v>8465.463164311363</v>
+        <v>10154.21049188263</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1438,34 +1438,34 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t12</t>
+          <t>t76</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <v>2025</v>
       </c>
       <c r="G29">
-        <v>80.58450989962152</v>
+        <v>41.62180359460319</v>
       </c>
       <c r="H29">
-        <v>33.70200367484387</v>
+        <v>52.50134436909562</v>
       </c>
       <c r="I29">
-        <v>7581.720091546391</v>
+        <v>9978.803934234706</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1476,34 +1476,34 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t98</t>
+          <t>t72</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>2025</v>
       </c>
       <c r="G30">
-        <v>74.24835022497348</v>
+        <v>111.557835898088</v>
       </c>
       <c r="H30">
-        <v>17.81976321342012</v>
+        <v>29.19499749860642</v>
       </c>
       <c r="I30">
-        <v>4394.646384782901</v>
+        <v>9861.517929541647</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1514,34 +1514,34 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t36</t>
+          <t>t7</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31">
         <v>2025</v>
       </c>
       <c r="G31">
-        <v>51.92132326161971</v>
+        <v>100.1031843535409</v>
       </c>
       <c r="H31">
-        <v>16.47601700137849</v>
+        <v>47.05646383501297</v>
       </c>
       <c r="I31">
-        <v>3821.712308377522</v>
+        <v>9402.675007422875</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1552,34 +1552,34 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t96</t>
+          <t>t12</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F32">
         <v>2025</v>
       </c>
       <c r="G32">
-        <v>45.20329843393458</v>
+        <v>115.568585749509</v>
       </c>
       <c r="H32">
-        <v>7.197156349950488</v>
+        <v>28.78129571182032</v>
       </c>
       <c r="I32">
-        <v>1818.786271766078</v>
+        <v>8904.094064077402</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1590,72 +1590,72 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t32</t>
+          <t>t66</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="E33">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G33">
-        <v>81.74993833009728</v>
+        <v>96.06566432267294</v>
       </c>
       <c r="H33">
-        <v>39.29141143694381</v>
+        <v>52.77026222980403</v>
       </c>
       <c r="I33">
-        <v>11425.82044630752</v>
+        <v>8843.312899284176</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>compra</t>
+          <t>propria</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t91</t>
+          <t>t65</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>2018</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G34">
-        <v>58.12130559941639</v>
+        <v>76.17442098929601</v>
       </c>
       <c r="H34">
-        <v>37.22321288816197</v>
+        <v>36.68836928094699</v>
       </c>
       <c r="I34">
-        <v>10422.95381009603</v>
+        <v>8795.834112517503</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1666,34 +1666,34 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t72</t>
+          <t>t45</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F35">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G35">
-        <v>55.45432171080196</v>
+        <v>83.40978941895963</v>
       </c>
       <c r="H35">
-        <v>51.47912728890709</v>
+        <v>32.2338970390298</v>
       </c>
       <c r="I35">
-        <v>10061.82345587102</v>
+        <v>8205.789302551424</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1704,34 +1704,34 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t100</t>
+          <t>t54</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G36">
-        <v>85.753342775907</v>
+        <v>98.93171280395572</v>
       </c>
       <c r="H36">
-        <v>41.83658419411963</v>
+        <v>50.69008454821125</v>
       </c>
       <c r="I36">
-        <v>9283.695619089001</v>
+        <v>8185.299369880255</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1742,34 +1742,34 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t56</t>
+          <t>t9</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C37">
         <v>8</v>
       </c>
       <c r="D37">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E37">
         <v>8</v>
       </c>
       <c r="F37">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G37">
-        <v>109.7654851370938</v>
+        <v>87.52740583549297</v>
       </c>
       <c r="H37">
-        <v>21.7508894583756</v>
+        <v>30.56927303645681</v>
       </c>
       <c r="I37">
-        <v>6343.654245240179</v>
+        <v>7725.446593931738</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1780,34 +1780,34 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t85</t>
+          <t>t20</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G38">
-        <v>64.7565298489861</v>
+        <v>119.426747724483</v>
       </c>
       <c r="H38">
-        <v>24.63716850649067</v>
+        <v>45.58764593872667</v>
       </c>
       <c r="I38">
-        <v>5449.120734587938</v>
+        <v>7651.058828932277</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1818,34 +1818,34 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t77</t>
+          <t>t13</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F39">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G39">
-        <v>68.85100721279011</v>
+        <v>82.68895321867352</v>
       </c>
       <c r="H39">
-        <v>22.55707262006659</v>
+        <v>43.35117992911631</v>
       </c>
       <c r="I39">
-        <v>5132.606338897946</v>
+        <v>7560.370454432086</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1856,34 +1856,34 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t83</t>
+          <t>t52</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F40">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G40">
-        <v>102.0260815884432</v>
+        <v>73.31437270537673</v>
       </c>
       <c r="H40">
-        <v>12.27955103657385</v>
+        <v>42.22596782222975</v>
       </c>
       <c r="I40">
-        <v>3067.678289615876</v>
+        <v>6857.26678686563</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1894,34 +1894,34 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t8</t>
+          <t>t24</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C41">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41">
         <v>2016</v>
       </c>
       <c r="E41">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F41">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="G41">
-        <v>113.9054216788524</v>
+        <v>81.65931467171828</v>
       </c>
       <c r="H41">
-        <v>25.68291459703985</v>
+        <v>22.47614569354065</v>
       </c>
       <c r="I41">
-        <v>9933.88602306111</v>
+        <v>6850.734132891559</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1932,34 +1932,34 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t23</t>
+          <t>t86</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D42">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="E42">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F42">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="G42">
-        <v>116.9983912065247</v>
+        <v>68.54914792147748</v>
       </c>
       <c r="H42">
-        <v>28.99531301730712</v>
+        <v>14.70416114541714</v>
       </c>
       <c r="I42">
-        <v>6722.615274085804</v>
+        <v>6481.876772145047</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -1970,34 +1970,34 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t29</t>
+          <t>t93</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E43">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F43">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="G43">
-        <v>75.33145644175508</v>
+        <v>79.83381971568787</v>
       </c>
       <c r="H43">
-        <v>14.55204825011102</v>
+        <v>30.5247397048759</v>
       </c>
       <c r="I43">
-        <v>4805.273261235322</v>
+        <v>6234.687149530341</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2008,34 +2008,34 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t44</t>
+          <t>t100</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="G44">
-        <v>80.29488970649717</v>
+        <v>61.53586094340338</v>
       </c>
       <c r="H44">
-        <v>10.68390853505856</v>
+        <v>17.8448211311458</v>
       </c>
       <c r="I44">
-        <v>3521.526839715253</v>
+        <v>5826.490724904815</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2046,34 +2046,34 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t69</t>
+          <t>t11</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E45">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F45">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="G45">
-        <v>105.8775993582192</v>
+        <v>51.47485315234924</v>
       </c>
       <c r="H45">
-        <v>11.13165423668036</v>
+        <v>18.8096960042687</v>
       </c>
       <c r="I45">
-        <v>3088.771970797582</v>
+        <v>5801.946460368579</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2084,34 +2084,34 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t87</t>
+          <t>t38</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D46">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E46">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F46">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="G46">
-        <v>68.49622941256536</v>
+        <v>106.1580304022829</v>
       </c>
       <c r="H46">
-        <v>47.43606510326312</v>
+        <v>15.22601169261018</v>
       </c>
       <c r="I46">
-        <v>22161.9086935484</v>
+        <v>5546.825095385127</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2122,34 +2122,34 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t26</t>
+          <t>t90</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C47">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47">
         <v>2016</v>
       </c>
       <c r="E47">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F47">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="G47">
-        <v>59.4988103849291</v>
+        <v>63.53837756855951</v>
       </c>
       <c r="H47">
-        <v>42.74903662797804</v>
+        <v>19.00454737965367</v>
       </c>
       <c r="I47">
-        <v>16784.54295579575</v>
+        <v>5418.481911596795</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2160,34 +2160,34 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t48</t>
+          <t>t34</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D48">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="E48">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F48">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="G48">
-        <v>43.20822830706231</v>
+        <v>70.32050139397447</v>
       </c>
       <c r="H48">
-        <v>33.92073080128333</v>
+        <v>13.87436894406089</v>
       </c>
       <c r="I48">
-        <v>8076.116898135245</v>
+        <v>5376.576637271511</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2198,34 +2198,34 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t28</t>
+          <t>t67</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C49">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E49">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F49">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="G49">
-        <v>80.08203913913627</v>
+        <v>117.7494892661721</v>
       </c>
       <c r="H49">
-        <v>13.26725475960777</v>
+        <v>17.86954857621192</v>
       </c>
       <c r="I49">
-        <v>5280.012636545964</v>
+        <v>5261.944768622536</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2236,34 +2236,34 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t58</t>
+          <t>t97</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D50">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F50">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="G50">
-        <v>56.78689997059914</v>
+        <v>115.2710400556984</v>
       </c>
       <c r="H50">
-        <v>9.744653525627491</v>
+        <v>12.04958911109689</v>
       </c>
       <c r="I50">
-        <v>1959.409712908773</v>
+        <v>5201.527892013441</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2274,72 +2274,72 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t43</t>
+          <t>t63</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="G51">
-        <v>75.06267798325804</v>
+        <v>51.82299087853612</v>
       </c>
       <c r="H51">
-        <v>52.60682229616526</v>
+        <v>31.19028586452106</v>
       </c>
       <c r="I51">
-        <v>18790.66891975815</v>
+        <v>5108.846997628313</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>compra</t>
+          <t>propria</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t81</t>
+          <t>t64</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C52">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D52">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="E52">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F52">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="G52">
-        <v>54.82102605049981</v>
+        <v>98.32038657585147</v>
       </c>
       <c r="H52">
-        <v>35.9746041917535</v>
+        <v>27.44569950949909</v>
       </c>
       <c r="I52">
-        <v>15881.52337533794</v>
+        <v>4793.453452196817</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2350,34 +2350,34 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t89</t>
+          <t>t48</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D53">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F53">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="G53">
-        <v>73.74859112074968</v>
+        <v>73.45797970693791</v>
       </c>
       <c r="H53">
-        <v>50.40501871098758</v>
+        <v>9.040087163478569</v>
       </c>
       <c r="I53">
-        <v>11710.59233766759</v>
+        <v>4309.33813174645</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2388,34 +2388,34 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t86</t>
+          <t>t29</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D54">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="E54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F54">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="G54">
-        <v>74.1650279595103</v>
+        <v>81.98156973794397</v>
       </c>
       <c r="H54">
-        <v>49.98710640585534</v>
+        <v>22.73447261317365</v>
       </c>
       <c r="I54">
-        <v>11626.68837863892</v>
+        <v>4297.499900200297</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2426,34 +2426,34 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t7</t>
+          <t>t99</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D55">
         <v>2019</v>
       </c>
       <c r="E55">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F55">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="G55">
-        <v>89.62670651118148</v>
+        <v>102.2286216146127</v>
       </c>
       <c r="H55">
-        <v>33.05054757578852</v>
+        <v>21.03956054922227</v>
       </c>
       <c r="I55">
-        <v>10700.42785477783</v>
+        <v>4278.106405137453</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -2464,34 +2464,34 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t13</t>
+          <t>t85</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="E56">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F56">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="G56">
-        <v>131.2054677744187</v>
+        <v>91.35903944943344</v>
       </c>
       <c r="H56">
-        <v>14.40105081587985</v>
+        <v>10.41750554970461</v>
       </c>
       <c r="I56">
-        <v>5478.915521907691</v>
+        <v>4195.037422901285</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2502,34 +2502,34 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t97</t>
+          <t>t42</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D57">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="E57">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F57">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="G57">
-        <v>71.97359381000069</v>
+        <v>89.6405900824752</v>
       </c>
       <c r="H57">
-        <v>23.33357970525148</v>
+        <v>13.19057680817482</v>
       </c>
       <c r="I57">
-        <v>5450.395458200954</v>
+        <v>4056.604375250821</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2540,34 +2540,34 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t55</t>
+          <t>t4</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="E58">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="G58">
-        <v>82.5796350639295</v>
+        <v>66.63642786493213</v>
       </c>
       <c r="H58">
-        <v>12.5037579716027</v>
+        <v>9.558504953314493</v>
       </c>
       <c r="I58">
-        <v>4788.834644094511</v>
+        <v>4025.414543159049</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2578,34 +2578,34 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t11</t>
+          <t>t37</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C59">
         <v>6</v>
       </c>
       <c r="D59">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="E59">
         <v>6</v>
       </c>
       <c r="F59">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="G59">
-        <v>87.9469819760162</v>
+        <v>89.88625672029713</v>
       </c>
       <c r="H59">
-        <v>7.004438308158397</v>
+        <v>19.53102293104032</v>
       </c>
       <c r="I59">
-        <v>1471.63326304287</v>
+        <v>3867.107426942749</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2616,72 +2616,72 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t60</t>
+          <t>t30</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E60">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F60">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="G60">
-        <v>76.10307231614338</v>
+        <v>70.9172618169128</v>
       </c>
       <c r="H60">
-        <v>43.90582548331464</v>
+        <v>11.72067787145548</v>
       </c>
       <c r="I60">
-        <v>20869.2227164981</v>
+        <v>3730.094432616321</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>compra</t>
+          <t>propria</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t54</t>
+          <t>t77</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C61">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D61">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="E61">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F61">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="G61">
-        <v>94.88748449908064</v>
+        <v>76.09482307778727</v>
       </c>
       <c r="H61">
-        <v>52.63994919929025</v>
+        <v>8.336000036646686</v>
       </c>
       <c r="I61">
-        <v>18533.9509800191</v>
+        <v>3726.350858907911</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2692,34 +2692,34 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t99</t>
+          <t>t55</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C62">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D62">
         <v>2020</v>
       </c>
       <c r="E62">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F62">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="G62">
-        <v>61.23185199897275</v>
+        <v>80.08797408652748</v>
       </c>
       <c r="H62">
-        <v>52.42760565319222</v>
+        <v>22.20105320033731</v>
       </c>
       <c r="I62">
-        <v>18333.31580475721</v>
+        <v>3411.676390722148</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2730,34 +2730,34 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t78</t>
+          <t>t8</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C63">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E63">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F63">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="G63">
-        <v>60.45685755147613</v>
+        <v>72.19762671892643</v>
       </c>
       <c r="H63">
-        <v>35.43114021565859</v>
+        <v>17.03743745837162</v>
       </c>
       <c r="I63">
-        <v>15712.242098204</v>
+        <v>3108.313671617508</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -2768,34 +2768,34 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t30</t>
+          <t>t58</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D64">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="E64">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F64">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="G64">
-        <v>70.02223561792775</v>
+        <v>94.79178451149593</v>
       </c>
       <c r="H64">
-        <v>46.18001035163629</v>
+        <v>7.646514270312813</v>
       </c>
       <c r="I64">
-        <v>11786.58042275772</v>
+        <v>2734.27752932796</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -2806,34 +2806,34 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t4</t>
+          <t>t41</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D65">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="E65">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F65">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="G65">
-        <v>95.23088704689823</v>
+        <v>42.60422419594774</v>
       </c>
       <c r="H65">
-        <v>48.41728420253737</v>
+        <v>8.700446010294204</v>
       </c>
       <c r="I65">
-        <v>10419.71254782236</v>
+        <v>2640.961847883333</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -2844,34 +2844,34 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t64</t>
+          <t>t10</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C66">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D66">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="E66">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F66">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="G66">
-        <v>80.37569001059502</v>
+        <v>84.88329848972988</v>
       </c>
       <c r="H66">
-        <v>13.61984279125046</v>
+        <v>6.229884432787559</v>
       </c>
       <c r="I66">
-        <v>4657.339151238674</v>
+        <v>2518.657913268275</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -2882,34 +2882,34 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t38</t>
+          <t>t92</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="E67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="G67">
-        <v>60.37280018125502</v>
+        <v>56.64675347740402</v>
       </c>
       <c r="H67">
-        <v>14.69170867950547</v>
+        <v>15.2018986783224</v>
       </c>
       <c r="I67">
-        <v>2764.628744164867</v>
+        <v>2517.276565601122</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -2920,72 +2920,72 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t49</t>
+          <t>t51</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C68">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E68">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F68">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="G68">
-        <v>97.97177881846579</v>
+        <v>107.288698581397</v>
       </c>
       <c r="H68">
-        <v>54.1713070186126</v>
+        <v>13.67116633262099</v>
       </c>
       <c r="I68">
-        <v>23602.41546695219</v>
+        <v>2458.154348098299</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>compra</t>
+          <t>propria</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t17</t>
+          <t>t43</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C69">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D69">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F69">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="G69">
-        <v>98.27697373699242</v>
+        <v>89.12271206602404</v>
       </c>
       <c r="H69">
-        <v>46.20798460850816</v>
+        <v>9.366298579828374</v>
       </c>
       <c r="I69">
-        <v>16437.92575876512</v>
+        <v>2008.274354439196</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -2996,34 +2996,34 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t1</t>
+          <t>t32</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C70">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D70">
         <v>2017</v>
       </c>
       <c r="E70">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F70">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="G70">
-        <v>81.39390206035596</v>
+        <v>79.28155154754977</v>
       </c>
       <c r="H70">
-        <v>25.97374988559697</v>
+        <v>7.551271470266069</v>
       </c>
       <c r="I70">
-        <v>12310.99634798506</v>
+        <v>1956.855685932432</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3034,34 +3034,34 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t45</t>
+          <t>t25</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C71">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="E71">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F71">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="G71">
-        <v>41.61824593406305</v>
+        <v>91.34441829702999</v>
       </c>
       <c r="H71">
-        <v>32.19662570895758</v>
+        <v>5.719820994396859</v>
       </c>
       <c r="I71">
-        <v>9565.727636146676</v>
+        <v>1801.881292135252</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3072,34 +3072,34 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t65</t>
+          <t>t94</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C72">
         <v>9</v>
       </c>
       <c r="D72">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="E72">
         <v>9</v>
       </c>
       <c r="F72">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="G72">
-        <v>92.69549129353835</v>
+        <v>82.5771080319481</v>
       </c>
       <c r="H72">
-        <v>26.68007319056721</v>
+        <v>6.152567233141535</v>
       </c>
       <c r="I72">
-        <v>8345.292877609492</v>
+        <v>1726.58965895822</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3110,34 +3110,34 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t80</t>
+          <t>t40</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C73">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="E73">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F73">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="G73">
-        <v>68.0554104081899</v>
+        <v>96.29405461794713</v>
       </c>
       <c r="H73">
-        <v>13.49243682166495</v>
+        <v>8.805766647819022</v>
       </c>
       <c r="I73">
-        <v>7019.948556324363</v>
+        <v>1634.417231208101</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3148,34 +3148,34 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t42</t>
+          <t>t44</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="E74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F74">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="G74">
-        <v>22.49716632351689</v>
+        <v>72.93199428340178</v>
       </c>
       <c r="H74">
-        <v>25.7066197756668</v>
+        <v>7.83481677546273</v>
       </c>
       <c r="I74">
-        <v>5532.906709926879</v>
+        <v>1627.761683003363</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3186,34 +3186,34 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t63</t>
+          <t>t33</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C75">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D75">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="E75">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F75">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="G75">
-        <v>89.69825576332397</v>
+        <v>101.3832292135359</v>
       </c>
       <c r="H75">
-        <v>15.05398441867498</v>
+        <v>6.139914507814678</v>
       </c>
       <c r="I75">
-        <v>5316.934353250846</v>
+        <v>1564.330205163994</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3224,34 +3224,34 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t37</t>
+          <t>t28</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E76">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F76">
-        <v>2032</v>
+        <v>2025</v>
       </c>
       <c r="G76">
-        <v>108.8178629461981</v>
+        <v>100.8722491671237</v>
       </c>
       <c r="H76">
-        <v>42.73250756970811</v>
+        <v>6.319911477197748</v>
       </c>
       <c r="I76">
-        <v>13155.41256295767</v>
+        <v>1008.578066216199</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3262,34 +3262,34 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t95</t>
+          <t>t84</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C77">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D77">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="E77">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F77">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="G77">
-        <v>96.12246527184426</v>
+        <v>93.56680354445399</v>
       </c>
       <c r="H77">
-        <v>19.61717220594332</v>
+        <v>47.36916572263073</v>
       </c>
       <c r="I77">
-        <v>9088.659683835145</v>
+        <v>12048.56431281958</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3300,34 +3300,34 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t84</t>
+          <t>t82</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C78">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D78">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E78">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F78">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="G78">
-        <v>66.45515947438724</v>
+        <v>76.61363335396074</v>
       </c>
       <c r="H78">
-        <v>19.46406630850971</v>
+        <v>44.16150866444185</v>
       </c>
       <c r="I78">
-        <v>8323.278836224792</v>
+        <v>10063.30470239553</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3338,34 +3338,34 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t51</t>
+          <t>t74</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C79">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D79">
         <v>2021</v>
       </c>
       <c r="E79">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F79">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="G79">
-        <v>75.62071536550479</v>
+        <v>56.52846118257281</v>
       </c>
       <c r="H79">
-        <v>20.73111273655678</v>
+        <v>21.52823306632689</v>
       </c>
       <c r="I79">
-        <v>7356.525658599475</v>
+        <v>4764.457128880438</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3376,34 +3376,34 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t27</t>
+          <t>t39</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C80">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D80">
         <v>2021</v>
       </c>
       <c r="E80">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F80">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="G80">
-        <v>60.35501848869526</v>
+        <v>109.9408201880557</v>
       </c>
       <c r="H80">
-        <v>47.39821521687777</v>
+        <v>17.13889073567011</v>
       </c>
       <c r="I80">
-        <v>19306.53698780551</v>
+        <v>3768.344640220533</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3414,34 +3414,34 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t93</t>
+          <t>t27</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C81">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D81">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E81">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F81">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="G81">
-        <v>77.8237547353862</v>
+        <v>86.46013006044873</v>
       </c>
       <c r="H81">
-        <v>39.40897777574036</v>
+        <v>10.02586213584591</v>
       </c>
       <c r="I81">
-        <v>12188.00537079125</v>
+        <v>2415.965540112222</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3452,34 +3452,34 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t82</t>
+          <t>t26</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C82">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D82">
         <v>2021</v>
       </c>
       <c r="E82">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F82">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="G82">
-        <v>51.79905596861168</v>
+        <v>59.5090304093108</v>
       </c>
       <c r="H82">
-        <v>23.61419259098986</v>
+        <v>9.00070457893365</v>
       </c>
       <c r="I82">
-        <v>9253.53993640043</v>
+        <v>2100.032537040736</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3490,34 +3490,34 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t14</t>
+          <t>t49</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C83">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D83">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E83">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F83">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="G83">
-        <v>105.142554231691</v>
+        <v>48.61835629712096</v>
       </c>
       <c r="H83">
-        <v>16.77278161947624</v>
+        <v>6.566561890306732</v>
       </c>
       <c r="I83">
-        <v>7970.464727307475</v>
+        <v>1521.870671888367</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -3528,34 +3528,34 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t40</t>
+          <t>t14</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C84">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D84">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E84">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F84">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="G84">
-        <v>60.17605509455857</v>
+        <v>95.31197998315729</v>
       </c>
       <c r="H84">
-        <v>7.921470150261269</v>
+        <v>56.0541744949154</v>
       </c>
       <c r="I84">
-        <v>2608.473571287116</v>
+        <v>13932.15067886081</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -3566,34 +3566,34 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t20</t>
+          <t>t53</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C85">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E85">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F85">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="G85">
-        <v>67.90576678291427</v>
+        <v>94.65500084418204</v>
       </c>
       <c r="H85">
-        <v>37.73394661397347</v>
+        <v>41.46697891846757</v>
       </c>
       <c r="I85">
-        <v>13068.05944142919</v>
+        <v>9142.177578449238</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -3604,110 +3604,110 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t76</t>
+          <t>t70</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E86">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F86">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="G86">
-        <v>76.02270846363795</v>
+        <v>87.5992537313349</v>
       </c>
       <c r="H86">
-        <v>36.96216310482384</v>
+        <v>43.88890225269544</v>
       </c>
       <c r="I86">
-        <v>11666.79297649443</v>
+        <v>9793.573692894073</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>propria</t>
+          <t>compra</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t35</t>
+          <t>t81</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C87">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E87">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F87">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="G87">
-        <v>75.08754824710618</v>
+        <v>71.40042322611625</v>
       </c>
       <c r="H87">
-        <v>23.60627384720201</v>
+        <v>39.75812222540012</v>
       </c>
       <c r="I87">
-        <v>11409.89737974315</v>
+        <v>9516.515982584966</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>propria</t>
+          <t>compra</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t92</t>
+          <t>t87</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C88">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E88">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F88">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="G88">
-        <v>94.29412382643653</v>
+        <v>52.73417487443319</v>
       </c>
       <c r="H88">
-        <v>49.59686929031815</v>
+        <v>38.32651707393092</v>
       </c>
       <c r="I88">
-        <v>16789.38465215379</v>
+        <v>8948.925652405478</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -3718,34 +3718,34 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t21</t>
+          <t>t1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E89">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F89">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="G89">
-        <v>90.7810881287306</v>
+        <v>65.9753666150616</v>
       </c>
       <c r="H89">
-        <v>29.07341915970629</v>
+        <v>30.58382975092429</v>
       </c>
       <c r="I89">
-        <v>13810.73026797965</v>
+        <v>7033.132422072777</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -3756,34 +3756,34 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t66</t>
+          <t>t79</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C90">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D90">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E90">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F90">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="G90">
-        <v>95.0888817521014</v>
+        <v>106.2800433439611</v>
       </c>
       <c r="H90">
-        <v>18.18529859695998</v>
+        <v>28.86994499560148</v>
       </c>
       <c r="I90">
-        <v>7108.734947976952</v>
+        <v>6432.252421499975</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -3794,34 +3794,34 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t74</t>
+          <t>t78</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C91">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D91">
         <v>2023</v>
       </c>
       <c r="E91">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F91">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="G91">
-        <v>61.4628368659138</v>
+        <v>28.15344660108026</v>
       </c>
       <c r="H91">
-        <v>12.00733426364448</v>
+        <v>26.5710538968615</v>
       </c>
       <c r="I91">
-        <v>5137.117184616407</v>
+        <v>6269.937859902027</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -3832,34 +3832,34 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t52</t>
+          <t>t95</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C92">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E92">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F92">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="G92">
-        <v>91.28536321302339</v>
+        <v>77.08248743077995</v>
       </c>
       <c r="H92">
-        <v>12.44347322315986</v>
+        <v>23.99053107699377</v>
       </c>
       <c r="I92">
-        <v>4766.947622956885</v>
+        <v>5273.019910842885</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -3870,34 +3870,34 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t75</t>
+          <t>t68</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C93">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E93">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F93">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="G93">
-        <v>88.22470711601804</v>
+        <v>109.4776236221828</v>
       </c>
       <c r="H93">
-        <v>7.778422074170647</v>
+        <v>19.48531135411088</v>
       </c>
       <c r="I93">
-        <v>3559.956801811487</v>
+        <v>4979.455182789261</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -3908,34 +3908,34 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t70</t>
+          <t>t15</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C94">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E94">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F94">
-        <v>2036</v>
+        <v>2030</v>
       </c>
       <c r="G94">
-        <v>77.26897958305167</v>
+        <v>99.10273353817963</v>
       </c>
       <c r="H94">
-        <v>14.32242829246267</v>
+        <v>22.55433556968312</v>
       </c>
       <c r="I94">
-        <v>6590.546207729119</v>
+        <v>4977.396145650557</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -3946,34 +3946,34 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t62</t>
+          <t>t75</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C95">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D95">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="E95">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F95">
-        <v>2036</v>
+        <v>2030</v>
       </c>
       <c r="G95">
-        <v>89.93280847439884</v>
+        <v>76.88714930219363</v>
       </c>
       <c r="H95">
-        <v>9.917853466512366</v>
+        <v>16.23721696815493</v>
       </c>
       <c r="I95">
-        <v>5038.615868859276</v>
+        <v>3646.544234797641</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -3984,72 +3984,72 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t39</t>
+          <t>t73</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C96">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D96">
         <v>2024</v>
       </c>
       <c r="E96">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F96">
-        <v>2036</v>
+        <v>2031</v>
       </c>
       <c r="G96">
-        <v>109.4848980785185</v>
+        <v>91.92468218636908</v>
       </c>
       <c r="H96">
-        <v>9.816489554676972</v>
+        <v>49.44182497240746</v>
       </c>
       <c r="I96">
-        <v>3970.875267629671</v>
+        <v>12458.64093899833</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>propria</t>
+          <t>compra</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t15</t>
+          <t>t60</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C97">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E97">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F97">
-        <v>2037</v>
+        <v>2031</v>
       </c>
       <c r="G97">
-        <v>69.30924628769121</v>
+        <v>84.924216870728</v>
       </c>
       <c r="H97">
-        <v>57.62000847779603</v>
+        <v>47.49366366041138</v>
       </c>
       <c r="I97">
-        <v>26594.6243832441</v>
+        <v>11730.4037678879</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4060,34 +4060,34 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t68</t>
+          <t>t35</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C98">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E98">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F98">
-        <v>2037</v>
+        <v>2031</v>
       </c>
       <c r="G98">
-        <v>99.31522592435304</v>
+        <v>77.57979777345112</v>
       </c>
       <c r="H98">
-        <v>36.843659749484</v>
+        <v>47.97698139018394</v>
       </c>
       <c r="I98">
-        <v>17977.09784637024</v>
+        <v>11379.85065108694</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -4098,34 +4098,34 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t53</t>
+          <t>t21</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C99">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <v>2024</v>
       </c>
       <c r="E99">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F99">
-        <v>2037</v>
+        <v>2031</v>
       </c>
       <c r="G99">
-        <v>69.49131248600864</v>
+        <v>72.32735787423276</v>
       </c>
       <c r="H99">
-        <v>15.14256868450655</v>
+        <v>46.51276090971101</v>
       </c>
       <c r="I99">
-        <v>6572.43152867719</v>
+        <v>11058.77305258195</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -4136,34 +4136,34 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t73</t>
+          <t>t80</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C100">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E100">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F100">
-        <v>2038</v>
+        <v>2031</v>
       </c>
       <c r="G100">
-        <v>75.24693863309352</v>
+        <v>67.28913997935729</v>
       </c>
       <c r="H100">
-        <v>54.01176464802891</v>
+        <v>26.81041813464702</v>
       </c>
       <c r="I100">
-        <v>27046.05491304079</v>
+        <v>6220.661095605205</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4174,34 +4174,34 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t79</t>
+          <t>t62</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>eucalipto</t>
+          <t>Eucalyptus</t>
         </is>
       </c>
       <c r="C101">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <v>2024</v>
       </c>
       <c r="E101">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F101">
-        <v>2038</v>
+        <v>2031</v>
       </c>
       <c r="G101">
-        <v>81.21470497457773</v>
+        <v>34.70221287024113</v>
       </c>
       <c r="H101">
-        <v>24.69604882304727</v>
+        <v>20.35215932251915</v>
       </c>
       <c r="I101">
-        <v>12355.81879527457</v>
+        <v>4606.767897436661</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
